--- a/ProjectDocuments/FinalDoc/04. Itegration Plan/Itegration Plan.xlsx
+++ b/ProjectDocuments/FinalDoc/04. Itegration Plan/Itegration Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Sprint</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>Thời Gian Thực Hiện</t>
+  </si>
+  <si>
+    <t>07/05/2010</t>
+  </si>
+  <si>
+    <t>04/06/2010</t>
+  </si>
+  <si>
+    <t>07/04/2010</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
   </si>
 </sst>
 </file>
@@ -319,7 +331,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,18 +348,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -379,6 +379,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +689,7 @@
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,71 +704,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1"/>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,10 +780,10 @@
       <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6">
-        <v>40363</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -797,11 +803,11 @@
       <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
-        <v>40364</v>
+      <c r="D12" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>11</v>
@@ -820,10 +826,10 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
-        <v>40395</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -843,11 +849,11 @@
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9">
-        <v>40274</v>
+      <c r="D14" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
